--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Bartronics India Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Yearly Results of Bartronics India(in Rs. Cr.)</t>
   </si>
@@ -134,6 +134,51 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>182.23</t>
+  </si>
+  <si>
+    <t>375.58</t>
+  </si>
+  <si>
+    <t>599.12</t>
+  </si>
+  <si>
+    <t>597.05</t>
+  </si>
+  <si>
+    <t>50.44</t>
+  </si>
+  <si>
+    <t>25.88</t>
+  </si>
+  <si>
+    <t>42.96</t>
+  </si>
+  <si>
+    <t>72.59</t>
+  </si>
+  <si>
+    <t>70.97</t>
+  </si>
+  <si>
+    <t>71.99</t>
+  </si>
+  <si>
+    <t>68.01</t>
+  </si>
+  <si>
+    <t>63.44</t>
+  </si>
+  <si>
+    <t>65.56</t>
+  </si>
+  <si>
+    <t>52.63</t>
+  </si>
+  <si>
+    <t>48.84</t>
   </si>
 </sst>
 </file>
@@ -578,8 +623,8 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2">
-        <v>182.23</v>
+      <c r="B2" t="s">
+        <v>40</v>
       </c>
       <c r="C2">
         <v>182.23</v>
@@ -633,16 +678,16 @@
         <v>215.82</v>
       </c>
       <c r="T2">
-        <v>-7.961666666666666</v>
+        <v>-7.96</v>
       </c>
       <c r="U2">
-        <v>-8.531666666666666</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="V2">
-        <v>-7.961666666666666</v>
+        <v>-7.96</v>
       </c>
       <c r="W2">
-        <v>-8.531666666666666</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="X2">
         <v>1.62</v>
@@ -655,8 +700,8 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
-        <v>375.58</v>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
       <c r="C3">
         <v>375.58</v>
@@ -710,16 +755,16 @@
         <v>278.07</v>
       </c>
       <c r="T3">
-        <v>-7.961666666666666</v>
+        <v>-7.96</v>
       </c>
       <c r="U3">
-        <v>-8.531666666666666</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="V3">
-        <v>-7.961666666666666</v>
+        <v>-7.96</v>
       </c>
       <c r="W3">
-        <v>-8.531666666666666</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="X3">
         <v>2</v>
@@ -732,8 +777,8 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
-        <v>599.12</v>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
       <c r="C4">
         <v>599.12</v>
@@ -787,16 +832,16 @@
         <v>408.5</v>
       </c>
       <c r="T4">
-        <v>-7.961666666666666</v>
+        <v>-7.96</v>
       </c>
       <c r="U4">
-        <v>-8.531666666666666</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="V4">
-        <v>-7.961666666666666</v>
+        <v>-7.96</v>
       </c>
       <c r="W4">
-        <v>-8.531666666666666</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="X4">
         <v>2.35</v>
@@ -809,8 +854,8 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>597.05</v>
+      <c r="B5" t="s">
+        <v>43</v>
       </c>
       <c r="C5">
         <v>597.05</v>
@@ -886,8 +931,8 @@
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>50.44</v>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6">
         <v>50.44</v>
@@ -938,7 +983,7 @@
         <v>34.05</v>
       </c>
       <c r="S6">
-        <v>92.33615384615383</v>
+        <v>92.34</v>
       </c>
       <c r="T6">
         <v>-7.24</v>
@@ -963,8 +1008,8 @@
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>25.88</v>
+      <c r="B7" t="s">
+        <v>45</v>
       </c>
       <c r="C7">
         <v>25.88</v>
@@ -1015,7 +1060,7 @@
         <v>34.05</v>
       </c>
       <c r="S7">
-        <v>92.33615384615383</v>
+        <v>92.34</v>
       </c>
       <c r="T7">
         <v>-24.55</v>
@@ -1040,8 +1085,8 @@
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8">
-        <v>42.96</v>
+      <c r="B8" t="s">
+        <v>46</v>
       </c>
       <c r="C8">
         <v>42.96</v>
@@ -1117,8 +1162,8 @@
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9">
-        <v>72.59</v>
+      <c r="B9" t="s">
+        <v>47</v>
       </c>
       <c r="C9">
         <v>72.59</v>
@@ -1194,8 +1239,8 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
-        <v>70.97</v>
+      <c r="B10" t="s">
+        <v>48</v>
       </c>
       <c r="C10">
         <v>70.97</v>
@@ -1261,18 +1306,18 @@
         <v>-12.52</v>
       </c>
       <c r="X10">
-        <v>2.545</v>
+        <v>2.54</v>
       </c>
       <c r="Y10">
-        <v>78.02250000000001</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11">
-        <v>71.98999999999999</v>
+      <c r="B11" t="s">
+        <v>49</v>
       </c>
       <c r="C11">
         <v>71.98999999999999</v>
@@ -1338,18 +1383,18 @@
         <v>-12.54</v>
       </c>
       <c r="X11">
-        <v>2.545</v>
+        <v>2.54</v>
       </c>
       <c r="Y11">
-        <v>78.02250000000001</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12">
-        <v>68.01000000000001</v>
+      <c r="B12" t="s">
+        <v>50</v>
       </c>
       <c r="C12">
         <v>68.01000000000001</v>
@@ -1415,18 +1460,18 @@
         <v>-6.85</v>
       </c>
       <c r="X12">
-        <v>2.545</v>
+        <v>2.54</v>
       </c>
       <c r="Y12">
-        <v>78.02250000000001</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B13">
-        <v>63.44</v>
+      <c r="B13" t="s">
+        <v>51</v>
       </c>
       <c r="C13">
         <v>63.44</v>
@@ -1492,18 +1537,18 @@
         <v>-16.75</v>
       </c>
       <c r="X13">
-        <v>2.545</v>
+        <v>2.54</v>
       </c>
       <c r="Y13">
-        <v>78.02250000000001</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14">
-        <v>65.56</v>
+      <c r="B14" t="s">
+        <v>52</v>
       </c>
       <c r="C14">
         <v>65.56</v>
@@ -1569,18 +1614,18 @@
         <v>-11.3</v>
       </c>
       <c r="X14">
-        <v>2.545</v>
+        <v>2.54</v>
       </c>
       <c r="Y14">
-        <v>78.02250000000001</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15">
-        <v>52.63</v>
+      <c r="B15" t="s">
+        <v>53</v>
       </c>
       <c r="C15">
         <v>52.63</v>
@@ -1646,24 +1691,24 @@
         <v>3.62</v>
       </c>
       <c r="X15">
-        <v>2.545</v>
+        <v>2.54</v>
       </c>
       <c r="Y15">
-        <v>78.02250000000001</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B16">
-        <v>48.84</v>
+      <c r="B16" t="s">
+        <v>54</v>
       </c>
       <c r="C16">
         <v>48.84</v>
       </c>
       <c r="D16">
-        <v>60.30642857142857</v>
+        <v>60.31</v>
       </c>
       <c r="E16">
         <v>0.11</v>
@@ -1687,7 +1732,7 @@
         <v>0.97</v>
       </c>
       <c r="L16">
-        <v>44.05785714285715</v>
+        <v>44.06</v>
       </c>
       <c r="M16">
         <v>0.97</v>
@@ -1723,10 +1768,10 @@
         <v>0.05</v>
       </c>
       <c r="X16">
-        <v>2.545</v>
+        <v>2.54</v>
       </c>
       <c r="Y16">
-        <v>78.02250000000001</v>
+        <v>78.02</v>
       </c>
     </row>
   </sheetData>
